--- a/TAP_POM_Framework/data/TC0023.xlsx
+++ b/TAP_POM_Framework/data/TC0023.xlsx
@@ -19,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>uname</t>
   </si>
   <si>
     <t>pwd</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>status</t>
   </si>
   <si>
     <t>sys_admin@ltts.com</t>
@@ -39,7 +33,7 @@
     <t>Rajravi@1</t>
   </si>
   <si>
-    <t>Completed</t>
+    <t>row</t>
   </si>
 </sst>
 </file>
@@ -368,15 +362,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,30 +381,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>277</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -416,6 +401,5 @@
     <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>